--- a/artfynd/A 32054-2021 artfynd.xlsx
+++ b/artfynd/A 32054-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY42"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131256691</v>
+        <v>131260583</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -940,7 +940,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488667</v>
+        <v>488834</v>
       </c>
       <c r="R4" t="n">
-        <v>6665262</v>
+        <v>6665228</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,12 +994,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131260583</v>
+        <v>131256691</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1057,7 +1057,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488834</v>
+        <v>488667</v>
       </c>
       <c r="R5" t="n">
-        <v>6665228</v>
+        <v>6665262</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1704,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131260641</v>
+        <v>131257520</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1715,39 +1715,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>488859</v>
+        <v>488939</v>
       </c>
       <c r="R11" t="n">
-        <v>6665292</v>
+        <v>6665149</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1779,7 +1774,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1789,12 +1784,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,10 +1816,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131257520</v>
+        <v>131256673</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,34 +1827,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488939</v>
+        <v>488652</v>
       </c>
       <c r="R12" t="n">
-        <v>6665149</v>
+        <v>6665282</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,7 +1933,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131257290</v>
+        <v>131260641</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488842</v>
+        <v>488859</v>
       </c>
       <c r="R13" t="n">
-        <v>6665224</v>
+        <v>6665292</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131256673</v>
+        <v>131257290</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488652</v>
+        <v>488842</v>
       </c>
       <c r="R14" t="n">
-        <v>6665282</v>
+        <v>6665224</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2611,10 +2611,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131256516</v>
+        <v>131256403</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2622,39 +2622,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>488625</v>
+        <v>488680</v>
       </c>
       <c r="R19" t="n">
-        <v>6665252</v>
+        <v>6665257</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2686,7 +2681,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2696,12 +2691,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Rikligt hackad. Tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2728,7 +2723,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131256403</v>
+        <v>131257637</v>
       </c>
       <c r="B20" t="n">
         <v>79244</v>
@@ -2763,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>488680</v>
+        <v>488909</v>
       </c>
       <c r="R20" t="n">
-        <v>6665257</v>
+        <v>6665191</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2798,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2808,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -2840,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131257637</v>
+        <v>131255771</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>81229</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2851,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2875,10 +2870,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>488909</v>
+        <v>488818</v>
       </c>
       <c r="R21" t="n">
-        <v>6665191</v>
+        <v>6665110</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2910,7 +2905,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2920,12 +2915,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:57</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2952,10 +2942,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131255771</v>
+        <v>131257316</v>
       </c>
       <c r="B22" t="n">
-        <v>81229</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2963,21 +2953,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2987,10 +2977,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>488818</v>
+        <v>488852</v>
       </c>
       <c r="R22" t="n">
-        <v>6665110</v>
+        <v>6665209</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3022,7 +3012,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3032,7 +3022,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3059,7 +3054,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131257316</v>
+        <v>131257642</v>
       </c>
       <c r="B23" t="n">
         <v>79244</v>
@@ -3094,10 +3089,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>488852</v>
+        <v>488913</v>
       </c>
       <c r="R23" t="n">
-        <v>6665209</v>
+        <v>6665191</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3129,7 +3124,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3139,7 +3134,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3171,7 +3166,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131257642</v>
+        <v>131257650</v>
       </c>
       <c r="B24" t="n">
         <v>79244</v>
@@ -3206,10 +3201,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>488913</v>
+        <v>488911</v>
       </c>
       <c r="R24" t="n">
-        <v>6665191</v>
+        <v>6665227</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3241,7 +3236,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3251,7 +3246,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3395,7 +3390,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131257650</v>
+        <v>131257544</v>
       </c>
       <c r="B26" t="n">
         <v>79244</v>
@@ -3430,10 +3425,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>488911</v>
+        <v>488940</v>
       </c>
       <c r="R26" t="n">
-        <v>6665227</v>
+        <v>6665149</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3465,7 +3460,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3475,7 +3470,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3507,10 +3502,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131257544</v>
+        <v>131257239</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3518,34 +3513,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>488940</v>
+        <v>488852</v>
       </c>
       <c r="R27" t="n">
-        <v>6665149</v>
+        <v>6665286</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3731,10 +3731,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131257239</v>
+        <v>131258531</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3742,39 +3742,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488852</v>
+        <v>488725</v>
       </c>
       <c r="R29" t="n">
-        <v>6665286</v>
+        <v>6665212</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3806,7 +3801,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3816,12 +3811,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3848,10 +3843,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131258531</v>
+        <v>131257659</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3859,34 +3854,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488725</v>
+        <v>488901</v>
       </c>
       <c r="R30" t="n">
-        <v>6665212</v>
+        <v>6665222</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3960,7 +3960,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131258537</v>
+        <v>131255108</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>488726</v>
+        <v>488978</v>
       </c>
       <c r="R31" t="n">
-        <v>6665209</v>
+        <v>6665417</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4040,12 +4040,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4072,7 +4072,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131255108</v>
+        <v>131258537</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>488978</v>
+        <v>488726</v>
       </c>
       <c r="R32" t="n">
-        <v>6665417</v>
+        <v>6665209</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4184,10 +4184,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131257659</v>
+        <v>131256603</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4195,39 +4195,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>488901</v>
+        <v>488625</v>
       </c>
       <c r="R33" t="n">
-        <v>6665222</v>
+        <v>6665252</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4259,7 +4254,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4269,12 +4264,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4301,7 +4296,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131256603</v>
+        <v>131257913</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4336,10 +4331,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>488625</v>
+        <v>488913</v>
       </c>
       <c r="R34" t="n">
-        <v>6665252</v>
+        <v>6665358</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4371,7 +4366,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4381,12 +4376,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4413,10 +4408,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131257913</v>
+        <v>131256459</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4424,34 +4419,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>488913</v>
+        <v>488669</v>
       </c>
       <c r="R35" t="n">
-        <v>6665358</v>
+        <v>6665268</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Färska och äldre hack.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4525,10 +4525,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131256459</v>
+        <v>131257385</v>
       </c>
       <c r="B36" t="n">
-        <v>57881</v>
+        <v>91829</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4536,39 +4536,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488669</v>
+        <v>488876</v>
       </c>
       <c r="R36" t="n">
-        <v>6665268</v>
+        <v>6665194</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4600,7 +4591,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4610,12 +4601,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Färska och äldre hack.</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4642,10 +4633,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B37" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4653,19 +4644,23 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4673,10 +4668,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R37" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4708,7 +4703,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4718,12 +4713,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4750,7 +4745,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131260531</v>
+        <v>131257731</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4785,10 +4780,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>488786</v>
+        <v>488874</v>
       </c>
       <c r="R38" t="n">
-        <v>6665188</v>
+        <v>6665272</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4820,7 +4815,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4830,7 +4825,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -4862,7 +4857,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131257731</v>
+        <v>131257440</v>
       </c>
       <c r="B39" t="n">
         <v>79244</v>
@@ -4897,10 +4892,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>488874</v>
+        <v>488885</v>
       </c>
       <c r="R39" t="n">
-        <v>6665272</v>
+        <v>6665181</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4932,7 +4927,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4942,7 +4937,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -4974,10 +4969,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131257440</v>
+        <v>131257343</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4985,34 +4980,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>488885</v>
+        <v>488872</v>
       </c>
       <c r="R40" t="n">
-        <v>6665181</v>
+        <v>6665191</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5198,10 +5198,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131257343</v>
+        <v>131273946</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5209,42 +5209,40 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Hyttfallet, Hyttfallet, Dlr</t>
+          <t>Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488872</v>
+        <v>488774</v>
       </c>
       <c r="R42" t="n">
-        <v>6665191</v>
+        <v>6665353</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5271,47 +5269,352 @@
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>11:29</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2026-02-22</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>11:29</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Karl Ericson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Karl Ericson</t>
+          <t>Anna-Lena Thommson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>131273991</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>488928</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6665146</v>
+      </c>
+      <c r="S43" t="n">
+        <v>50</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>131256516</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>488625</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6665252</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>10:46</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>10:46</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Rikligt hackad. Tall.</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>131273940</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>488785</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6665325</v>
+      </c>
+      <c r="S45" t="n">
+        <v>50</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 32054-2021 artfynd.xlsx
+++ b/artfynd/A 32054-2021 artfynd.xlsx
@@ -800,7 +800,7 @@
         <v>131257646</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131260583</v>
+        <v>131256691</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -940,7 +940,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488834</v>
+        <v>488667</v>
       </c>
       <c r="R4" t="n">
-        <v>6665228</v>
+        <v>6665262</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,12 +994,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131256691</v>
+        <v>131260583</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1057,7 +1057,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488667</v>
+        <v>488834</v>
       </c>
       <c r="R5" t="n">
-        <v>6665262</v>
+        <v>6665228</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,7 +1146,7 @@
         <v>131257424</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>131255793</v>
       </c>
       <c r="B7" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>131257188</v>
       </c>
       <c r="B8" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>131256730</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>131257520</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R12" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,7 +1933,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131260641</v>
+        <v>131257290</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488859</v>
+        <v>488842</v>
       </c>
       <c r="R13" t="n">
-        <v>6665292</v>
+        <v>6665224</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131257290</v>
+        <v>131256673</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488842</v>
+        <v>488652</v>
       </c>
       <c r="R14" t="n">
-        <v>6665224</v>
+        <v>6665282</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2170,7 +2170,7 @@
         <v>131255096</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>131257479</v>
       </c>
       <c r="B16" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>131256750</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>131256401</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>131256403</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>131257637</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>131255771</v>
       </c>
       <c r="B21" t="n">
-        <v>81229</v>
+        <v>81230</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>131257316</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>131257642</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131257650</v>
+        <v>131257045</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3201,10 +3201,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>488911</v>
+        <v>488760</v>
       </c>
       <c r="R24" t="n">
-        <v>6665227</v>
+        <v>6665302</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3278,10 +3278,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131257045</v>
+        <v>131257650</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>488760</v>
+        <v>488911</v>
       </c>
       <c r="R25" t="n">
-        <v>6665302</v>
+        <v>6665227</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3393,7 +3393,7 @@
         <v>131257544</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131257239</v>
+        <v>131255910</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3513,39 +3513,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>488852</v>
+        <v>488763</v>
       </c>
       <c r="R27" t="n">
-        <v>6665286</v>
+        <v>6665157</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3577,7 +3572,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3587,12 +3582,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3619,10 +3614,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131255910</v>
+        <v>131258531</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3654,10 +3649,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488763</v>
+        <v>488725</v>
       </c>
       <c r="R28" t="n">
-        <v>6665157</v>
+        <v>6665212</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3689,7 +3684,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3699,12 +3694,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3731,10 +3726,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131258531</v>
+        <v>131257239</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3742,34 +3737,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488725</v>
+        <v>488852</v>
       </c>
       <c r="R29" t="n">
-        <v>6665212</v>
+        <v>6665286</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3843,10 +3843,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131257659</v>
+        <v>131258537</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3854,39 +3854,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488901</v>
+        <v>488726</v>
       </c>
       <c r="R30" t="n">
-        <v>6665222</v>
+        <v>6665209</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3918,7 +3913,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3928,12 +3923,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3963,7 +3958,7 @@
         <v>131255108</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4072,10 +4067,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131258537</v>
+        <v>131257659</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4083,34 +4078,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>488726</v>
+        <v>488901</v>
       </c>
       <c r="R32" t="n">
-        <v>6665209</v>
+        <v>6665222</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4187,7 +4187,7 @@
         <v>131256603</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>131257913</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131256459</v>
+        <v>131257385</v>
       </c>
       <c r="B35" t="n">
-        <v>57881</v>
+        <v>91830</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4419,39 +4419,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>488669</v>
+        <v>488876</v>
       </c>
       <c r="R35" t="n">
-        <v>6665268</v>
+        <v>6665194</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4483,7 +4474,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4493,12 +4484,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Färska och äldre hack.</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4525,10 +4516,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B36" t="n">
-        <v>91829</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4536,19 +4527,23 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4556,10 +4551,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R36" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4591,7 +4586,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4601,12 +4596,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4633,10 +4628,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131260531</v>
+        <v>131256459</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4644,34 +4639,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>488786</v>
+        <v>488669</v>
       </c>
       <c r="R37" t="n">
-        <v>6665188</v>
+        <v>6665268</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4713,12 +4713,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Färska och äldre hack.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4748,7 +4748,7 @@
         <v>131257731</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>131257440</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131257343</v>
+        <v>131257035</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4980,39 +4980,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>488872</v>
+        <v>488760</v>
       </c>
       <c r="R40" t="n">
-        <v>6665191</v>
+        <v>6665301</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5044,7 +5039,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5054,12 +5049,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5086,10 +5081,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131257035</v>
+        <v>131257343</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5097,34 +5092,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>488760</v>
+        <v>488872</v>
       </c>
       <c r="R41" t="n">
-        <v>6665301</v>
+        <v>6665191</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5198,10 +5198,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131273946</v>
+        <v>131273991</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5236,10 +5236,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488774</v>
+        <v>488928</v>
       </c>
       <c r="R42" t="n">
-        <v>6665353</v>
+        <v>6665146</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131273991</v>
+        <v>131273946</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5337,10 +5337,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>488928</v>
+        <v>488774</v>
       </c>
       <c r="R43" t="n">
-        <v>6665146</v>
+        <v>6665353</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5520,7 +5520,7 @@
         <v>131273940</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/artfynd/A 32054-2021 artfynd.xlsx
+++ b/artfynd/A 32054-2021 artfynd.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131256691</v>
+        <v>131257424</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,39 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488667</v>
+        <v>488876</v>
       </c>
       <c r="R4" t="n">
-        <v>6665262</v>
+        <v>6665177</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -984,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131260583</v>
+        <v>131255793</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>91830</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,39 +1032,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488834</v>
+        <v>488817</v>
       </c>
       <c r="R5" t="n">
-        <v>6665228</v>
+        <v>6665110</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1101,7 +1087,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,12 +1097,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Flera fruktkroppar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131257424</v>
+        <v>131256691</v>
       </c>
       <c r="B6" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1154,34 +1140,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488876</v>
+        <v>488667</v>
       </c>
       <c r="R6" t="n">
-        <v>6665177</v>
+        <v>6665262</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1213,7 +1204,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,12 +1214,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131255793</v>
+        <v>131260583</v>
       </c>
       <c r="B7" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1266,30 +1257,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488817</v>
+        <v>488834</v>
       </c>
       <c r="R7" t="n">
-        <v>6665110</v>
+        <v>6665228</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1704,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131257520</v>
+        <v>131257290</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1715,34 +1715,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>488939</v>
+        <v>488842</v>
       </c>
       <c r="R11" t="n">
-        <v>6665149</v>
+        <v>6665224</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1774,7 +1779,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1784,12 +1789,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1816,7 +1821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131260641</v>
+        <v>131256673</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1856,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488859</v>
+        <v>488652</v>
       </c>
       <c r="R12" t="n">
-        <v>6665292</v>
+        <v>6665282</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1891,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1901,12 +1906,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131257290</v>
+        <v>131257520</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1944,39 +1949,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488842</v>
+        <v>488939</v>
       </c>
       <c r="R13" t="n">
-        <v>6665224</v>
+        <v>6665149</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R14" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -4408,10 +4408,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B35" t="n">
-        <v>91830</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4419,19 +4419,23 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4439,10 +4443,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R35" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4474,7 +4478,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4484,12 +4488,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4516,10 +4520,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131260531</v>
+        <v>131257385</v>
       </c>
       <c r="B36" t="n">
-        <v>79245</v>
+        <v>91830</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4527,23 +4531,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488786</v>
+        <v>488876</v>
       </c>
       <c r="R36" t="n">
-        <v>6665188</v>
+        <v>6665194</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5198,7 +5198,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131273991</v>
+        <v>131273946</v>
       </c>
       <c r="B42" t="n">
         <v>79245</v>
@@ -5236,10 +5236,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488928</v>
+        <v>488774</v>
       </c>
       <c r="R42" t="n">
-        <v>6665146</v>
+        <v>6665353</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131273946</v>
+        <v>131273991</v>
       </c>
       <c r="B43" t="n">
         <v>79245</v>
@@ -5337,10 +5337,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>488774</v>
+        <v>488928</v>
       </c>
       <c r="R43" t="n">
-        <v>6665353</v>
+        <v>6665146</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>

--- a/artfynd/A 32054-2021 artfynd.xlsx
+++ b/artfynd/A 32054-2021 artfynd.xlsx
@@ -1704,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131257290</v>
+        <v>131257520</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1715,39 +1715,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>488842</v>
+        <v>488939</v>
       </c>
       <c r="R11" t="n">
-        <v>6665224</v>
+        <v>6665149</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1779,7 +1774,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1789,12 +1784,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,7 +1816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1861,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R12" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1896,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,12 +1901,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131257520</v>
+        <v>131257290</v>
       </c>
       <c r="B13" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1949,34 +1944,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488939</v>
+        <v>488842</v>
       </c>
       <c r="R13" t="n">
-        <v>6665149</v>
+        <v>6665224</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131260641</v>
+        <v>131256673</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488859</v>
+        <v>488652</v>
       </c>
       <c r="R14" t="n">
-        <v>6665292</v>
+        <v>6665282</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131255910</v>
+        <v>131258531</v>
       </c>
       <c r="B27" t="n">
         <v>79245</v>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>488763</v>
+        <v>488725</v>
       </c>
       <c r="R27" t="n">
-        <v>6665157</v>
+        <v>6665212</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3614,10 +3614,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131258531</v>
+        <v>131257239</v>
       </c>
       <c r="B28" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3625,34 +3625,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488725</v>
+        <v>488852</v>
       </c>
       <c r="R28" t="n">
-        <v>6665212</v>
+        <v>6665286</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3684,7 +3689,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3694,12 +3699,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3726,10 +3731,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131257239</v>
+        <v>131255910</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3737,39 +3742,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488852</v>
+        <v>488763</v>
       </c>
       <c r="R29" t="n">
-        <v>6665286</v>
+        <v>6665157</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4408,10 +4408,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131260531</v>
+        <v>131257385</v>
       </c>
       <c r="B35" t="n">
-        <v>79245</v>
+        <v>91830</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4419,23 +4419,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4443,10 +4439,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>488786</v>
+        <v>488876</v>
       </c>
       <c r="R35" t="n">
-        <v>6665188</v>
+        <v>6665194</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4478,7 +4474,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4488,12 +4484,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4520,10 +4516,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B36" t="n">
-        <v>91830</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4531,19 +4527,23 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R36" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD36" t="b">

--- a/artfynd/A 32054-2021 artfynd.xlsx
+++ b/artfynd/A 32054-2021 artfynd.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131257424</v>
+        <v>131256691</v>
       </c>
       <c r="B4" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488876</v>
+        <v>488667</v>
       </c>
       <c r="R4" t="n">
-        <v>6665177</v>
+        <v>6665262</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -979,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +994,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131255793</v>
+        <v>131260583</v>
       </c>
       <c r="B5" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,30 +1037,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488817</v>
+        <v>488834</v>
       </c>
       <c r="R5" t="n">
-        <v>6665110</v>
+        <v>6665228</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1087,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1097,12 +1111,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131256691</v>
+        <v>131257424</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1140,39 +1154,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488667</v>
+        <v>488876</v>
       </c>
       <c r="R6" t="n">
-        <v>6665262</v>
+        <v>6665177</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1204,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1214,12 +1223,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1246,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131260583</v>
+        <v>131255793</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>91833</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1257,39 +1266,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488834</v>
+        <v>488817</v>
       </c>
       <c r="R7" t="n">
-        <v>6665228</v>
+        <v>6665110</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Flera fruktkroppar.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131257188</v>
+        <v>131256423</v>
       </c>
       <c r="B8" t="n">
-        <v>91830</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,33 +1374,51 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>488804</v>
+        <v>488671</v>
       </c>
       <c r="R8" t="n">
-        <v>6665288</v>
+        <v>6665267</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1429,7 +1447,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1439,12 +1457,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:17</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt.</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131256423</v>
+        <v>131257188</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>91833</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1482,51 +1495,33 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>488671</v>
+        <v>488804</v>
       </c>
       <c r="R9" t="n">
-        <v>6665267</v>
+        <v>6665288</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1555,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1565,7 +1560,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2282,7 +2282,7 @@
         <v>131257479</v>
       </c>
       <c r="B16" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131255771</v>
+        <v>131257316</v>
       </c>
       <c r="B21" t="n">
-        <v>81230</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>488818</v>
+        <v>488852</v>
       </c>
       <c r="R21" t="n">
-        <v>6665110</v>
+        <v>6665209</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2915,7 +2915,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2942,10 +2947,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131257316</v>
+        <v>131255771</v>
       </c>
       <c r="B22" t="n">
-        <v>79245</v>
+        <v>81230</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2953,21 +2958,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2977,10 +2982,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>488852</v>
+        <v>488818</v>
       </c>
       <c r="R22" t="n">
-        <v>6665209</v>
+        <v>6665110</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3012,7 +3017,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3022,12 +3027,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:28</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131258531</v>
+        <v>131255910</v>
       </c>
       <c r="B27" t="n">
         <v>79245</v>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>488725</v>
+        <v>488763</v>
       </c>
       <c r="R27" t="n">
-        <v>6665212</v>
+        <v>6665157</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3614,10 +3614,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131257239</v>
+        <v>131258531</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3625,39 +3625,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488852</v>
+        <v>488725</v>
       </c>
       <c r="R28" t="n">
-        <v>6665286</v>
+        <v>6665212</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3689,7 +3684,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3699,12 +3694,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3731,10 +3726,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131255910</v>
+        <v>131257239</v>
       </c>
       <c r="B29" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3742,34 +3737,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488763</v>
+        <v>488852</v>
       </c>
       <c r="R29" t="n">
-        <v>6665157</v>
+        <v>6665286</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4411,7 +4411,7 @@
         <v>131257385</v>
       </c>
       <c r="B35" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
